--- a/dokumentation/plannering.xlsx
+++ b/dokumentation/plannering.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26122"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24526"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="17480" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="220" windowWidth="25360" windowHeight="15860" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="29">
   <si>
     <t xml:space="preserve">                               vecka                  uppgift</t>
   </si>
@@ -58,18 +58,67 @@
   </si>
   <si>
     <t>onsdag: slut med allt</t>
+  </si>
+  <si>
+    <t>Bekanta sig med ämnet</t>
+  </si>
+  <si>
+    <t>Definiera frågeställningar</t>
+  </si>
+  <si>
+    <t>Bakgrund och källor</t>
+  </si>
+  <si>
+    <t>gör sak</t>
+  </si>
+  <si>
+    <t>Koda och skriva utkast om mer avancerade algoritmer</t>
+  </si>
+  <si>
+    <t>Koda ochs skriva utkast om n^2 algoritm</t>
+  </si>
+  <si>
+    <t>Analysera matematiskt</t>
+  </si>
+  <si>
+    <t>Analytisk analys</t>
+  </si>
+  <si>
+    <t>Skriva utkast om analys</t>
+  </si>
+  <si>
+    <t>alla</t>
+  </si>
+  <si>
+    <t>lisa</t>
+  </si>
+  <si>
+    <t>adrian joakim</t>
+  </si>
+  <si>
+    <t>arbetar på rapport</t>
+  </si>
+  <si>
+    <t>fixa mindre fel i rapport</t>
+  </si>
+  <si>
+    <t>stressa över större fel</t>
+  </si>
+  <si>
+    <t>arbete inför kvarvarande deadlines</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -102,8 +151,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="136"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -115,8 +173,13 @@
         <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -133,14 +196,38 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -158,12 +245,28 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="4" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="13">
     <cellStyle name="Bra" xfId="1" builtinId="26"/>
     <cellStyle name="Följd hyperlänk" xfId="3" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Följd hyperlänk" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlänk" xfId="2" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlänk" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Utdata" xfId="4" builtinId="21"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -492,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF62"/>
+  <dimension ref="A1:AF50"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -623,11 +726,21 @@
       <c r="AE2" s="4"/>
       <c r="AF2" s="4"/>
     </row>
-    <row r="3" spans="1:32">
-      <c r="A3" s="4"/>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
+    <row r="3" spans="1:32" ht="16" customHeight="1">
+      <c r="A3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="8" t="str">
+        <f>B3</f>
+        <v>alla</v>
+      </c>
+      <c r="D3" s="8" t="str">
+        <f>C3</f>
+        <v>alla</v>
+      </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
@@ -657,12 +770,22 @@
       <c r="AE3" s="4"/>
       <c r="AF3" s="4"/>
     </row>
-    <row r="4" spans="1:32">
-      <c r="A4" s="4"/>
+    <row r="4" spans="1:32" ht="17" customHeight="1">
+      <c r="A4" s="4" t="s">
+        <v>14</v>
+      </c>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
+      <c r="C4" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="8" t="str">
+        <f>C4</f>
+        <v>alla</v>
+      </c>
+      <c r="E4" s="8" t="str">
+        <f>D4</f>
+        <v>alla</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -692,17 +815,28 @@
       <c r="AF4" s="4"/>
     </row>
     <row r="5" spans="1:32">
-      <c r="A5" s="4"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
+      <c r="A5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="J5" s="6"/>
-      <c r="K5" s="4"/>
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
@@ -725,13 +859,23 @@
       <c r="AE5" s="4"/>
       <c r="AF5" s="4"/>
     </row>
-    <row r="6" spans="1:32">
-      <c r="A6" s="4"/>
-      <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
-      <c r="F6" s="3"/>
+    <row r="6" spans="1:32" ht="30">
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
@@ -759,21 +903,39 @@
       <c r="AE6" s="4"/>
       <c r="AF6" s="4"/>
     </row>
-    <row r="7" spans="1:32">
-      <c r="A7" s="4"/>
+    <row r="7" spans="1:32" ht="45">
+      <c r="A7" s="4" t="s">
+        <v>17</v>
+      </c>
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="4"/>
-      <c r="N7" s="4"/>
+      <c r="F7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="2"/>
+      <c r="K7" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="O7" s="4"/>
       <c r="P7" s="4"/>
       <c r="Q7" s="4"/>
@@ -793,24 +955,52 @@
       <c r="AE7" s="4"/>
       <c r="AF7" s="4"/>
     </row>
-    <row r="8" spans="1:32">
-      <c r="A8" s="4"/>
+    <row r="8" spans="1:32" ht="30">
+      <c r="A8" s="4" t="s">
+        <v>19</v>
+      </c>
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="4"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="4"/>
-      <c r="N8" s="4"/>
-      <c r="O8" s="4"/>
-      <c r="P8" s="4"/>
-      <c r="Q8" s="4"/>
+      <c r="D8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="R8" s="6"/>
       <c r="S8" s="4"/>
       <c r="T8" s="4"/>
@@ -827,24 +1017,44 @@
       <c r="AE8" s="4"/>
       <c r="AF8" s="4"/>
     </row>
-    <row r="9" spans="1:32">
-      <c r="A9" s="4"/>
+    <row r="9" spans="1:32" ht="30">
+      <c r="A9" s="4" t="s">
+        <v>20</v>
+      </c>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
       <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="4"/>
-      <c r="N9" s="4"/>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-      <c r="Q9" s="4"/>
+      <c r="H9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q9" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="R9" s="6"/>
       <c r="S9" s="4"/>
       <c r="T9" s="4"/>
@@ -861,24 +1071,52 @@
       <c r="AE9" s="4"/>
       <c r="AF9" s="4"/>
     </row>
-    <row r="10" spans="1:32">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:32" ht="30">
+      <c r="A10" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
+      <c r="D10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="G10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="I10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="M10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="P10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="R10" s="6"/>
       <c r="S10" s="4"/>
       <c r="T10" s="4"/>
@@ -905,7 +1143,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="2"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
@@ -939,7 +1177,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="2"/>
       <c r="K12" s="4"/>
       <c r="L12" s="4"/>
       <c r="M12" s="4"/>
@@ -973,7 +1211,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="2"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="4"/>
@@ -1007,7 +1245,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="6"/>
+      <c r="J14" s="2"/>
       <c r="K14" s="4"/>
       <c r="L14" s="4"/>
       <c r="M14" s="4"/>
@@ -1041,7 +1279,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="6"/>
+      <c r="J15" s="2"/>
       <c r="K15" s="4"/>
       <c r="L15" s="4"/>
       <c r="M15" s="4"/>
@@ -1237,15 +1475,19 @@
     </row>
     <row r="21" spans="1:32">
       <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="B21" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
-      <c r="J21" s="6"/>
+      <c r="J21" s="4"/>
       <c r="K21" s="4"/>
       <c r="L21" s="4"/>
       <c r="M21" s="4"/>
@@ -1253,7 +1495,7 @@
       <c r="O21" s="4"/>
       <c r="P21" s="4"/>
       <c r="Q21" s="4"/>
-      <c r="R21" s="6"/>
+      <c r="R21" s="4"/>
       <c r="S21" s="4"/>
       <c r="T21" s="4"/>
       <c r="U21" s="4"/>
@@ -1269,25 +1511,69 @@
       <c r="AE21" s="4"/>
       <c r="AF21" s="4"/>
     </row>
-    <row r="22" spans="1:32">
-      <c r="A22" s="4"/>
-      <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-      <c r="J22" s="6"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-      <c r="R22" s="6"/>
+    <row r="22" spans="1:32" ht="30">
+      <c r="A22" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <f>B22 +1</f>
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:M22" si="1">C22 +1</f>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="J22">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="K22">
+        <f t="shared" si="1"/>
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+      <c r="N22">
+        <f>M22 +1</f>
+        <v>13</v>
+      </c>
+      <c r="O22">
+        <f t="shared" ref="O22:P22" si="2">N22 +1</f>
+        <v>14</v>
+      </c>
+      <c r="P22">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
       <c r="S22" s="4"/>
       <c r="T22" s="4"/>
       <c r="U22" s="4"/>
@@ -1303,25 +1589,36 @@
       <c r="AE22" s="4"/>
       <c r="AF22" s="4"/>
     </row>
-    <row r="23" spans="1:32">
-      <c r="A23" s="4"/>
+    <row r="23" spans="1:32" ht="75">
+      <c r="A23" s="5" t="s">
+        <v>5</v>
+      </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="E23" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-      <c r="J23" s="6"/>
-      <c r="K23" s="4"/>
+      <c r="J23" s="2"/>
+      <c r="K23" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
+      <c r="M23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="N23" s="6"/>
+      <c r="O23" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P23" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Q23" s="4"/>
-      <c r="R23" s="6"/>
       <c r="S23" s="4"/>
       <c r="T23" s="4"/>
       <c r="U23" s="4"/>
@@ -1338,24 +1635,33 @@
       <c r="AF23" s="4"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="4"/>
-      <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
+      <c r="A24" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="F24" s="4"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-      <c r="J24" s="6"/>
+      <c r="J24" s="2"/>
       <c r="K24" s="4"/>
       <c r="L24" s="4"/>
       <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="N24" s="6"/>
       <c r="O24" s="4"/>
       <c r="P24" s="4"/>
       <c r="Q24" s="4"/>
-      <c r="R24" s="6"/>
       <c r="S24" s="4"/>
       <c r="T24" s="4"/>
       <c r="U24" s="4"/>
@@ -1372,24 +1678,35 @@
       <c r="AF24" s="4"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="4"/>
+      <c r="A25" s="4" t="s">
+        <v>26</v>
+      </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="6"/>
-      <c r="K25" s="4"/>
+      <c r="F25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="H25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="J25" s="2"/>
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="L25" s="4"/>
       <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
+      <c r="N25" s="6"/>
       <c r="O25" s="4"/>
       <c r="P25" s="4"/>
       <c r="Q25" s="4"/>
-      <c r="R25" s="6"/>
       <c r="S25" s="4"/>
       <c r="T25" s="4"/>
       <c r="U25" s="4"/>
@@ -1406,7 +1723,9 @@
       <c r="AF25" s="4"/>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="4"/>
+      <c r="A26" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -1415,15 +1734,14 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
+      <c r="J26" s="2"/>
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
+      <c r="N26" s="6"/>
       <c r="O26" s="4"/>
       <c r="P26" s="4"/>
       <c r="Q26" s="4"/>
-      <c r="R26" s="4"/>
       <c r="S26" s="4"/>
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
@@ -1439,25 +1757,34 @@
       <c r="AE26" s="4"/>
       <c r="AF26" s="4"/>
     </row>
-    <row r="27" spans="1:32">
-      <c r="A27" s="4"/>
+    <row r="27" spans="1:32" ht="30">
+      <c r="A27" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
       <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
+      <c r="F27" s="3"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-      <c r="J27" s="4"/>
-      <c r="K27" s="4"/>
-      <c r="L27" s="4"/>
-      <c r="M27" s="4"/>
-      <c r="N27" s="4"/>
-      <c r="O27" s="4"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="M27" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N27" s="6"/>
+      <c r="O27" s="7" t="s">
+        <v>22</v>
+      </c>
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
-      <c r="R27" s="4"/>
       <c r="S27" s="4"/>
       <c r="T27" s="4"/>
       <c r="U27" s="4"/>
@@ -1483,15 +1810,14 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="4"/>
+      <c r="J28" s="2"/>
       <c r="K28" s="4"/>
       <c r="L28" s="4"/>
       <c r="M28" s="4"/>
-      <c r="N28" s="4"/>
+      <c r="N28" s="6"/>
       <c r="O28" s="4"/>
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
-      <c r="R28" s="4"/>
       <c r="S28" s="4"/>
       <c r="T28" s="4"/>
       <c r="U28" s="4"/>
@@ -1517,15 +1843,14 @@
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
+      <c r="J29" s="2"/>
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="4"/>
-      <c r="N29" s="4"/>
+      <c r="N29" s="6"/>
       <c r="O29" s="4"/>
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
-      <c r="R29" s="4"/>
       <c r="S29" s="4"/>
       <c r="T29" s="4"/>
       <c r="U29" s="4"/>
@@ -1551,15 +1876,14 @@
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="4"/>
+      <c r="J30" s="2"/>
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
-      <c r="N30" s="4"/>
+      <c r="N30" s="6"/>
       <c r="O30" s="4"/>
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
-      <c r="R30" s="4"/>
       <c r="S30" s="4"/>
       <c r="T30" s="4"/>
       <c r="U30" s="4"/>
@@ -1585,15 +1909,14 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
+      <c r="J31" s="2"/>
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
+      <c r="N31" s="6"/>
       <c r="O31" s="4"/>
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
-      <c r="R31" s="4"/>
       <c r="S31" s="4"/>
       <c r="T31" s="4"/>
       <c r="U31" s="4"/>
@@ -1619,15 +1942,14 @@
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="4"/>
+      <c r="J32" s="2"/>
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="4"/>
-      <c r="N32" s="4"/>
+      <c r="N32" s="6"/>
       <c r="O32" s="4"/>
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
-      <c r="R32" s="4"/>
       <c r="S32" s="4"/>
       <c r="T32" s="4"/>
       <c r="U32" s="4"/>
@@ -1645,9 +1967,7 @@
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="4"/>
-      <c r="B33" s="6" t="s">
-        <v>1</v>
-      </c>
+      <c r="B33" s="4"/>
       <c r="C33" s="4"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
@@ -1655,15 +1975,14 @@
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="4"/>
+      <c r="J33" s="2"/>
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="4"/>
-      <c r="N33" s="4"/>
+      <c r="N33" s="6"/>
       <c r="O33" s="4"/>
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
-      <c r="R33" s="4"/>
       <c r="S33" s="4"/>
       <c r="T33" s="4"/>
       <c r="U33" s="4"/>
@@ -1679,69 +1998,24 @@
       <c r="AE33" s="4"/>
       <c r="AF33" s="4"/>
     </row>
-    <row r="34" spans="1:32" ht="30">
-      <c r="A34" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-      <c r="C34">
-        <f>B34 +1</f>
-        <v>2</v>
-      </c>
-      <c r="D34">
-        <f t="shared" ref="D34:R34" si="1">C34 +1</f>
-        <v>3</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="F34">
-        <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-      <c r="H34">
-        <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-      <c r="I34">
-        <f t="shared" si="1"/>
-        <v>8</v>
-      </c>
-      <c r="J34">
-        <f t="shared" si="1"/>
-        <v>9</v>
-      </c>
-      <c r="K34">
-        <f t="shared" si="1"/>
-        <v>10</v>
-      </c>
-      <c r="L34">
-        <f t="shared" si="1"/>
-        <v>11</v>
-      </c>
-      <c r="M34">
-        <f t="shared" si="1"/>
-        <v>12</v>
-      </c>
-      <c r="N34">
-        <f>M34 +1</f>
-        <v>13</v>
-      </c>
-      <c r="O34">
-        <f t="shared" ref="O34:R34" si="2">N34 +1</f>
-        <v>14</v>
-      </c>
-      <c r="P34">
-        <f t="shared" si="2"/>
-        <v>15</v>
-      </c>
+    <row r="34" spans="1:32">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="2"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="6"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
       <c r="S34" s="4"/>
       <c r="T34" s="4"/>
       <c r="U34" s="4"/>
@@ -1757,35 +2031,23 @@
       <c r="AE34" s="4"/>
       <c r="AF34" s="4"/>
     </row>
-    <row r="35" spans="1:32" ht="75">
-      <c r="A35" s="5" t="s">
-        <v>5</v>
-      </c>
+    <row r="35" spans="1:32">
+      <c r="A35" s="4"/>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
-      <c r="E35" s="4" t="s">
-        <v>8</v>
-      </c>
+      <c r="E35" s="4"/>
       <c r="F35" s="4"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
       <c r="J35" s="2"/>
-      <c r="K35" s="4" t="s">
-        <v>9</v>
-      </c>
+      <c r="K35" s="4"/>
       <c r="L35" s="4"/>
-      <c r="M35" s="4" t="s">
-        <v>10</v>
-      </c>
+      <c r="M35" s="4"/>
       <c r="N35" s="6"/>
-      <c r="O35" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P35" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
       <c r="S35" s="4"/>
       <c r="T35" s="4"/>
@@ -1812,11 +2074,10 @@
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
-      <c r="J36" s="2"/>
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
-      <c r="N36" s="6"/>
+      <c r="N36" s="4"/>
       <c r="O36" s="4"/>
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
@@ -1845,11 +2106,10 @@
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
-      <c r="J37" s="2"/>
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
-      <c r="N37" s="6"/>
+      <c r="N37" s="4"/>
       <c r="O37" s="4"/>
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
@@ -1878,11 +2138,10 @@
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
-      <c r="J38" s="2"/>
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="4"/>
-      <c r="N38" s="6"/>
+      <c r="N38" s="4"/>
       <c r="O38" s="4"/>
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
@@ -1907,15 +2166,14 @@
       <c r="C39" s="4"/>
       <c r="D39" s="4"/>
       <c r="E39" s="4"/>
-      <c r="F39" s="3"/>
+      <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
-      <c r="J39" s="2"/>
       <c r="K39" s="4"/>
       <c r="L39" s="4"/>
       <c r="M39" s="4"/>
-      <c r="N39" s="6"/>
+      <c r="N39" s="4"/>
       <c r="O39" s="4"/>
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
@@ -1944,11 +2202,10 @@
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
-      <c r="J40" s="2"/>
       <c r="K40" s="4"/>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
-      <c r="N40" s="6"/>
+      <c r="N40" s="4"/>
       <c r="O40" s="4"/>
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
@@ -1977,11 +2234,10 @@
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
-      <c r="J41" s="2"/>
       <c r="K41" s="4"/>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
-      <c r="N41" s="6"/>
+      <c r="N41" s="4"/>
       <c r="O41" s="4"/>
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
@@ -2010,11 +2266,10 @@
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
-      <c r="J42" s="2"/>
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
-      <c r="N42" s="6"/>
+      <c r="N42" s="4"/>
       <c r="O42" s="4"/>
       <c r="P42" s="4"/>
       <c r="Q42" s="4"/>
@@ -2043,11 +2298,10 @@
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
-      <c r="J43" s="2"/>
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
-      <c r="N43" s="6"/>
+      <c r="N43" s="4"/>
       <c r="O43" s="4"/>
       <c r="P43" s="4"/>
       <c r="Q43" s="4"/>
@@ -2076,11 +2330,10 @@
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
-      <c r="J44" s="2"/>
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
-      <c r="N44" s="6"/>
+      <c r="N44" s="4"/>
       <c r="O44" s="4"/>
       <c r="P44" s="4"/>
       <c r="Q44" s="4"/>
@@ -2109,11 +2362,10 @@
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
-      <c r="J45" s="2"/>
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
-      <c r="N45" s="6"/>
+      <c r="N45" s="4"/>
       <c r="O45" s="4"/>
       <c r="P45" s="4"/>
       <c r="Q45" s="4"/>
@@ -2142,11 +2394,10 @@
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
-      <c r="J46" s="2"/>
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="4"/>
-      <c r="N46" s="6"/>
+      <c r="N46" s="4"/>
       <c r="O46" s="4"/>
       <c r="P46" s="4"/>
       <c r="Q46" s="4"/>
@@ -2175,11 +2426,11 @@
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
-      <c r="J47" s="2"/>
+      <c r="J47" s="4"/>
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="4"/>
-      <c r="N47" s="6"/>
+      <c r="N47" s="4"/>
       <c r="O47" s="4"/>
       <c r="P47" s="4"/>
       <c r="Q47" s="4"/>
@@ -2208,6 +2459,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
+      <c r="J48" s="4"/>
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -2240,6 +2492,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
+      <c r="J49" s="4"/>
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -2272,6 +2525,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
+      <c r="J50" s="4"/>
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -2294,394 +2548,6 @@
       <c r="AE50" s="4"/>
       <c r="AF50" s="4"/>
     </row>
-    <row r="51" spans="1:32">
-      <c r="A51" s="4"/>
-      <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4"/>
-      <c r="F51" s="4"/>
-      <c r="G51" s="4"/>
-      <c r="H51" s="4"/>
-      <c r="I51" s="4"/>
-      <c r="K51" s="4"/>
-      <c r="L51" s="4"/>
-      <c r="M51" s="4"/>
-      <c r="N51" s="4"/>
-      <c r="O51" s="4"/>
-      <c r="P51" s="4"/>
-      <c r="Q51" s="4"/>
-      <c r="S51" s="4"/>
-      <c r="T51" s="4"/>
-      <c r="U51" s="4"/>
-      <c r="V51" s="4"/>
-      <c r="W51" s="4"/>
-      <c r="X51" s="4"/>
-      <c r="Y51" s="4"/>
-      <c r="Z51" s="4"/>
-      <c r="AA51" s="4"/>
-      <c r="AB51" s="4"/>
-      <c r="AC51" s="4"/>
-      <c r="AD51" s="4"/>
-      <c r="AE51" s="4"/>
-      <c r="AF51" s="4"/>
-    </row>
-    <row r="52" spans="1:32">
-      <c r="A52" s="4"/>
-      <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4"/>
-      <c r="F52" s="4"/>
-      <c r="G52" s="4"/>
-      <c r="H52" s="4"/>
-      <c r="I52" s="4"/>
-      <c r="K52" s="4"/>
-      <c r="L52" s="4"/>
-      <c r="M52" s="4"/>
-      <c r="N52" s="4"/>
-      <c r="O52" s="4"/>
-      <c r="P52" s="4"/>
-      <c r="Q52" s="4"/>
-      <c r="S52" s="4"/>
-      <c r="T52" s="4"/>
-      <c r="U52" s="4"/>
-      <c r="V52" s="4"/>
-      <c r="W52" s="4"/>
-      <c r="X52" s="4"/>
-      <c r="Y52" s="4"/>
-      <c r="Z52" s="4"/>
-      <c r="AA52" s="4"/>
-      <c r="AB52" s="4"/>
-      <c r="AC52" s="4"/>
-      <c r="AD52" s="4"/>
-      <c r="AE52" s="4"/>
-      <c r="AF52" s="4"/>
-    </row>
-    <row r="53" spans="1:32">
-      <c r="A53" s="4"/>
-      <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4"/>
-      <c r="F53" s="4"/>
-      <c r="G53" s="4"/>
-      <c r="H53" s="4"/>
-      <c r="I53" s="4"/>
-      <c r="K53" s="4"/>
-      <c r="L53" s="4"/>
-      <c r="M53" s="4"/>
-      <c r="N53" s="4"/>
-      <c r="O53" s="4"/>
-      <c r="P53" s="4"/>
-      <c r="Q53" s="4"/>
-      <c r="S53" s="4"/>
-      <c r="T53" s="4"/>
-      <c r="U53" s="4"/>
-      <c r="V53" s="4"/>
-      <c r="W53" s="4"/>
-      <c r="X53" s="4"/>
-      <c r="Y53" s="4"/>
-      <c r="Z53" s="4"/>
-      <c r="AA53" s="4"/>
-      <c r="AB53" s="4"/>
-      <c r="AC53" s="4"/>
-      <c r="AD53" s="4"/>
-      <c r="AE53" s="4"/>
-      <c r="AF53" s="4"/>
-    </row>
-    <row r="54" spans="1:32">
-      <c r="A54" s="4"/>
-      <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
-      <c r="D54" s="4"/>
-      <c r="E54" s="4"/>
-      <c r="F54" s="4"/>
-      <c r="G54" s="4"/>
-      <c r="H54" s="4"/>
-      <c r="I54" s="4"/>
-      <c r="K54" s="4"/>
-      <c r="L54" s="4"/>
-      <c r="M54" s="4"/>
-      <c r="N54" s="4"/>
-      <c r="O54" s="4"/>
-      <c r="P54" s="4"/>
-      <c r="Q54" s="4"/>
-      <c r="S54" s="4"/>
-      <c r="T54" s="4"/>
-      <c r="U54" s="4"/>
-      <c r="V54" s="4"/>
-      <c r="W54" s="4"/>
-      <c r="X54" s="4"/>
-      <c r="Y54" s="4"/>
-      <c r="Z54" s="4"/>
-      <c r="AA54" s="4"/>
-      <c r="AB54" s="4"/>
-      <c r="AC54" s="4"/>
-      <c r="AD54" s="4"/>
-      <c r="AE54" s="4"/>
-      <c r="AF54" s="4"/>
-    </row>
-    <row r="55" spans="1:32">
-      <c r="A55" s="4"/>
-      <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
-      <c r="D55" s="4"/>
-      <c r="E55" s="4"/>
-      <c r="F55" s="4"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4"/>
-      <c r="I55" s="4"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="4"/>
-      <c r="N55" s="4"/>
-      <c r="O55" s="4"/>
-      <c r="P55" s="4"/>
-      <c r="Q55" s="4"/>
-      <c r="S55" s="4"/>
-      <c r="T55" s="4"/>
-      <c r="U55" s="4"/>
-      <c r="V55" s="4"/>
-      <c r="W55" s="4"/>
-      <c r="X55" s="4"/>
-      <c r="Y55" s="4"/>
-      <c r="Z55" s="4"/>
-      <c r="AA55" s="4"/>
-      <c r="AB55" s="4"/>
-      <c r="AC55" s="4"/>
-      <c r="AD55" s="4"/>
-      <c r="AE55" s="4"/>
-      <c r="AF55" s="4"/>
-    </row>
-    <row r="56" spans="1:32">
-      <c r="A56" s="4"/>
-      <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
-      <c r="D56" s="4"/>
-      <c r="E56" s="4"/>
-      <c r="F56" s="4"/>
-      <c r="G56" s="4"/>
-      <c r="H56" s="4"/>
-      <c r="I56" s="4"/>
-      <c r="K56" s="4"/>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
-      <c r="AD56" s="4"/>
-      <c r="AE56" s="4"/>
-      <c r="AF56" s="4"/>
-    </row>
-    <row r="57" spans="1:32">
-      <c r="A57" s="4"/>
-      <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
-      <c r="D57" s="4"/>
-      <c r="E57" s="4"/>
-      <c r="F57" s="4"/>
-      <c r="G57" s="4"/>
-      <c r="H57" s="4"/>
-      <c r="I57" s="4"/>
-      <c r="K57" s="4"/>
-      <c r="L57" s="4"/>
-      <c r="M57" s="4"/>
-      <c r="N57" s="4"/>
-      <c r="O57" s="4"/>
-      <c r="P57" s="4"/>
-      <c r="Q57" s="4"/>
-      <c r="S57" s="4"/>
-      <c r="T57" s="4"/>
-      <c r="U57" s="4"/>
-      <c r="V57" s="4"/>
-      <c r="W57" s="4"/>
-      <c r="X57" s="4"/>
-      <c r="Y57" s="4"/>
-      <c r="Z57" s="4"/>
-      <c r="AA57" s="4"/>
-      <c r="AB57" s="4"/>
-      <c r="AC57" s="4"/>
-      <c r="AD57" s="4"/>
-      <c r="AE57" s="4"/>
-      <c r="AF57" s="4"/>
-    </row>
-    <row r="58" spans="1:32">
-      <c r="A58" s="4"/>
-      <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
-      <c r="D58" s="4"/>
-      <c r="E58" s="4"/>
-      <c r="F58" s="4"/>
-      <c r="G58" s="4"/>
-      <c r="H58" s="4"/>
-      <c r="I58" s="4"/>
-      <c r="K58" s="4"/>
-      <c r="L58" s="4"/>
-      <c r="M58" s="4"/>
-      <c r="N58" s="4"/>
-      <c r="O58" s="4"/>
-      <c r="P58" s="4"/>
-      <c r="Q58" s="4"/>
-      <c r="S58" s="4"/>
-      <c r="T58" s="4"/>
-      <c r="U58" s="4"/>
-      <c r="V58" s="4"/>
-      <c r="W58" s="4"/>
-      <c r="X58" s="4"/>
-      <c r="Y58" s="4"/>
-      <c r="Z58" s="4"/>
-      <c r="AA58" s="4"/>
-      <c r="AB58" s="4"/>
-      <c r="AC58" s="4"/>
-      <c r="AD58" s="4"/>
-      <c r="AE58" s="4"/>
-      <c r="AF58" s="4"/>
-    </row>
-    <row r="59" spans="1:32">
-      <c r="A59" s="4"/>
-      <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
-      <c r="D59" s="4"/>
-      <c r="E59" s="4"/>
-      <c r="F59" s="4"/>
-      <c r="G59" s="4"/>
-      <c r="H59" s="4"/>
-      <c r="I59" s="4"/>
-      <c r="J59" s="4"/>
-      <c r="K59" s="4"/>
-      <c r="L59" s="4"/>
-      <c r="M59" s="4"/>
-      <c r="N59" s="4"/>
-      <c r="O59" s="4"/>
-      <c r="P59" s="4"/>
-      <c r="Q59" s="4"/>
-      <c r="S59" s="4"/>
-      <c r="T59" s="4"/>
-      <c r="U59" s="4"/>
-      <c r="V59" s="4"/>
-      <c r="W59" s="4"/>
-      <c r="X59" s="4"/>
-      <c r="Y59" s="4"/>
-      <c r="Z59" s="4"/>
-      <c r="AA59" s="4"/>
-      <c r="AB59" s="4"/>
-      <c r="AC59" s="4"/>
-      <c r="AD59" s="4"/>
-      <c r="AE59" s="4"/>
-      <c r="AF59" s="4"/>
-    </row>
-    <row r="60" spans="1:32">
-      <c r="A60" s="4"/>
-      <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
-      <c r="D60" s="4"/>
-      <c r="E60" s="4"/>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4"/>
-      <c r="I60" s="4"/>
-      <c r="J60" s="4"/>
-      <c r="K60" s="4"/>
-      <c r="L60" s="4"/>
-      <c r="M60" s="4"/>
-      <c r="N60" s="4"/>
-      <c r="O60" s="4"/>
-      <c r="P60" s="4"/>
-      <c r="Q60" s="4"/>
-      <c r="S60" s="4"/>
-      <c r="T60" s="4"/>
-      <c r="U60" s="4"/>
-      <c r="V60" s="4"/>
-      <c r="W60" s="4"/>
-      <c r="X60" s="4"/>
-      <c r="Y60" s="4"/>
-      <c r="Z60" s="4"/>
-      <c r="AA60" s="4"/>
-      <c r="AB60" s="4"/>
-      <c r="AC60" s="4"/>
-      <c r="AD60" s="4"/>
-      <c r="AE60" s="4"/>
-      <c r="AF60" s="4"/>
-    </row>
-    <row r="61" spans="1:32">
-      <c r="A61" s="4"/>
-      <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
-      <c r="D61" s="4"/>
-      <c r="E61" s="4"/>
-      <c r="F61" s="4"/>
-      <c r="G61" s="4"/>
-      <c r="H61" s="4"/>
-      <c r="I61" s="4"/>
-      <c r="J61" s="4"/>
-      <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
-      <c r="M61" s="4"/>
-      <c r="N61" s="4"/>
-      <c r="O61" s="4"/>
-      <c r="P61" s="4"/>
-      <c r="Q61" s="4"/>
-      <c r="S61" s="4"/>
-      <c r="T61" s="4"/>
-      <c r="U61" s="4"/>
-      <c r="V61" s="4"/>
-      <c r="W61" s="4"/>
-      <c r="X61" s="4"/>
-      <c r="Y61" s="4"/>
-      <c r="Z61" s="4"/>
-      <c r="AA61" s="4"/>
-      <c r="AB61" s="4"/>
-      <c r="AC61" s="4"/>
-      <c r="AD61" s="4"/>
-      <c r="AE61" s="4"/>
-      <c r="AF61" s="4"/>
-    </row>
-    <row r="62" spans="1:32">
-      <c r="A62" s="4"/>
-      <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
-      <c r="D62" s="4"/>
-      <c r="E62" s="4"/>
-      <c r="F62" s="4"/>
-      <c r="G62" s="4"/>
-      <c r="H62" s="4"/>
-      <c r="I62" s="4"/>
-      <c r="J62" s="4"/>
-      <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
-      <c r="M62" s="4"/>
-      <c r="N62" s="4"/>
-      <c r="O62" s="4"/>
-      <c r="P62" s="4"/>
-      <c r="Q62" s="4"/>
-      <c r="S62" s="4"/>
-      <c r="T62" s="4"/>
-      <c r="U62" s="4"/>
-      <c r="V62" s="4"/>
-      <c r="W62" s="4"/>
-      <c r="X62" s="4"/>
-      <c r="Y62" s="4"/>
-      <c r="Z62" s="4"/>
-      <c r="AA62" s="4"/>
-      <c r="AB62" s="4"/>
-      <c r="AC62" s="4"/>
-      <c r="AD62" s="4"/>
-      <c r="AE62" s="4"/>
-      <c r="AF62" s="4"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
